--- a/Dosimeter sample raw data and notes.xlsx
+++ b/Dosimeter sample raw data and notes.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1JEN (as of 19 May 2014)\Current research and pubs\MusiConn\Data collection in 2016\Dealing with dosimetry raw data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankyzhang/Desktop/Ofer-s-Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F5D2D-C9D3-4C4D-B20B-58DCDB9802A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet-1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet-2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
   <si>
     <t>Report Date            Tue, Nov 17, 2015</t>
   </si>
@@ -576,7 +589,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -660,7 +673,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,100 +952,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="162" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1049,13 +1061,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1071,17 +1083,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1089,12 +1101,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="G24" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.25E-2</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>69.393000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.125</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1875</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.25</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.3125</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.375</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.4375</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.5</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.5625</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.625</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>64.841999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.6875</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>55.856000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.75</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>72.561999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.8125</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>80.998000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.875</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>80.316999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.9375</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1357,7 +1369,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1.0625</v>
       </c>
@@ -1367,9 +1379,8 @@
       <c r="C43">
         <v>87.891000000000005</v>
       </c>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.125</v>
       </c>
@@ -1379,9 +1390,8 @@
       <c r="C44">
         <v>87.064999999999998</v>
       </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.1875</v>
       </c>
@@ -1391,9 +1401,8 @@
       <c r="C45">
         <v>73.213999999999999</v>
       </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.25</v>
       </c>
@@ -1403,9 +1412,8 @@
       <c r="C46">
         <v>76.546999999999997</v>
       </c>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.3125</v>
       </c>
@@ -1415,9 +1423,8 @@
       <c r="C47">
         <v>78.888999999999996</v>
       </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.375</v>
       </c>
@@ -1427,9 +1434,8 @@
       <c r="C48">
         <v>84.313999999999993</v>
       </c>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.4375</v>
       </c>
@@ -1439,9 +1445,8 @@
       <c r="C49">
         <v>66.498999999999995</v>
       </c>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1.5</v>
       </c>
@@ -1451,9 +1456,8 @@
       <c r="C50">
         <v>81.239999999999995</v>
       </c>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1.5625</v>
       </c>
@@ -1463,9 +1467,8 @@
       <c r="C51">
         <v>74.629000000000005</v>
       </c>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.625</v>
       </c>
@@ -1475,9 +1478,8 @@
       <c r="C52">
         <v>70.8</v>
       </c>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1.6875</v>
       </c>
@@ -1487,9 +1489,8 @@
       <c r="C53">
         <v>73.992999999999995</v>
       </c>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.75</v>
       </c>
@@ -1499,9 +1500,8 @@
       <c r="C54">
         <v>75.203999999999994</v>
       </c>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1.8125</v>
       </c>
@@ -1511,9 +1511,8 @@
       <c r="C55">
         <v>75.143000000000001</v>
       </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.875</v>
       </c>
@@ -1523,9 +1522,8 @@
       <c r="C56">
         <v>81.617999999999995</v>
       </c>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.9375</v>
       </c>
@@ -1547,7 +1545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>5.0124911182122176</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2.0625</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2.125</v>
       </c>
@@ -1594,7 +1592,7 @@
         <v>82.382000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.1875</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>81.867000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.25</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>85.463999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.3125</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>79.456999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2.375</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>73.855999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2.4375</v>
       </c>
@@ -1649,7 +1647,7 @@
         <v>77.605999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2.5</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>74.278999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2.5625</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2.625</v>
       </c>
@@ -1682,7 +1680,7 @@
         <v>77.510999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2.6875</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>78.174000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2.75</v>
       </c>
@@ -1704,7 +1702,7 @@
         <v>77.888000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.8125</v>
       </c>
@@ -1715,7 +1713,7 @@
         <v>79.174000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2.875</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>79.356999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2.9375</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>4.0078348109665027</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3.0625</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>80.932000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3.125</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>78.111999999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3.1875</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>78.647999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3.25</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3.3125</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3.375</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>66.421999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3.4375</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>75.421999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3.5</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>75.792000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3.5625</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>71.328999999999994</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3.625</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>68.754999999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3.6875</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>65.177000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3.75</v>
       </c>
@@ -1905,7 +1903,7 @@
         <v>62.378</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3.8125</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3.875</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3.9375</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4.0625</v>
       </c>
@@ -1960,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4.125</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4.1875</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>61.51</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4.25</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4.3125</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4.375</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4.4375</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>68.475999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4.5</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4.5625</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4.625</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>73.325999999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4.6875</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4.75</v>
       </c>
@@ -2081,7 +2079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4.8125</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>56.755000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4.875</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4.9375</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5.0625</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5.125</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>67.388000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5.1875</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>58.966000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5.25</v>
       </c>
@@ -2169,7 +2167,7 @@
         <v>63.100999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5.3125</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>60.421999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>5.375</v>
       </c>
@@ -2191,7 +2189,7 @@
         <v>56.755000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5.4375</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>62.755000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5.5</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>66.421999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5.5625</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5.625</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5.6875</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>61.966000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5.75</v>
       </c>
@@ -2257,7 +2255,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5.8125</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5.875</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5.9375</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6</v>
       </c>
@@ -2301,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6.0625</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6.125</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6.1875</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6.25</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>60.421999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6.3125</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6.375</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6.4375</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>64.744</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6.5</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>67.388000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6.5625</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>64.744</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6.625</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>67.510000000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6.6875</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>64.262</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6.75</v>
       </c>
@@ -2433,7 +2431,7 @@
         <v>56.755000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6.8125</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>66.573999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>6.875</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6.9375</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7.0625</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7.125</v>
       </c>
@@ -2499,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7.1875</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7.25</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7.3125</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7.375</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7.4375</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7.5</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7.5625</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7.625</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7.6875</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7.75</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7.8125</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7.875</v>
       </c>
@@ -2631,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7.9375</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>8</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8.0625</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8.125</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8.1875</v>
       </c>
@@ -2686,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>8.25</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8.3125</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8.375</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8.4375</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8.5</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>8.5625</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>8.625</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>8.6875</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>8.75</v>
       </c>
@@ -2785,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>8.8125</v>
       </c>
@@ -2796,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>8.875</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>8.9375</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>9</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>9.0625</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>9.125</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>9.1875</v>
       </c>
@@ -2862,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>9.25</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>9.3125</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>9.375</v>
       </c>
@@ -2895,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>9.4375</v>
       </c>
@@ -2906,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9.5</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9.5625</v>
       </c>
@@ -2928,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>9.625</v>
       </c>
@@ -2939,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>9.6875</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>9.75</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>9.8125</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>9.875</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>9.9375</v>
       </c>
@@ -2994,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>10</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10.0625</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>10.125</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10.1875</v>
       </c>
@@ -3038,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>10.25</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>10.3125</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10.375</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10.4375</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10.5</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10.5625</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10.625</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10.6875</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>10.7142</v>
       </c>
@@ -3137,307 +3135,307 @@
         <v>58.686</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>83</v>
       </c>
@@ -3446,4 +3444,1933 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CA10E-5FC8-5449-A16C-BDECCF2F522A}">
+  <dimension ref="A1:C174"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>69.393000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>69.393000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.125</v>
+      </c>
+      <c r="B4">
+        <v>0.19</v>
+      </c>
+      <c r="C4">
+        <v>78.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1875</v>
+      </c>
+      <c r="B5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C5">
+        <v>69.671999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>0.246</v>
+      </c>
+      <c r="C6">
+        <v>71.293999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.3125</v>
+      </c>
+      <c r="B7">
+        <v>0.247</v>
+      </c>
+      <c r="C7">
+        <v>58.198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.375</v>
+      </c>
+      <c r="B8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C8">
+        <v>69.367000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.4375</v>
+      </c>
+      <c r="B9">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C9">
+        <v>77.391999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C10">
+        <v>78.064999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.5625</v>
+      </c>
+      <c r="B11">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="C11">
+        <v>85.373000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.625</v>
+      </c>
+      <c r="B12">
+        <v>1.419</v>
+      </c>
+      <c r="C12">
+        <v>64.841999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.6875</v>
+      </c>
+      <c r="B13">
+        <v>1.42</v>
+      </c>
+      <c r="C13">
+        <v>55.856000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.75</v>
+      </c>
+      <c r="B14">
+        <v>1.464</v>
+      </c>
+      <c r="C14">
+        <v>72.561999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.8125</v>
+      </c>
+      <c r="B15">
+        <v>1.774</v>
+      </c>
+      <c r="C15">
+        <v>80.998000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.875</v>
+      </c>
+      <c r="B16">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="C16">
+        <v>80.316999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.9375</v>
+      </c>
+      <c r="B17">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="C17">
+        <v>91.644999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="C18">
+        <v>84.858000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.0625</v>
+      </c>
+      <c r="B19">
+        <v>7.9459999999999997</v>
+      </c>
+      <c r="C19">
+        <v>87.891000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.125</v>
+      </c>
+      <c r="B20">
+        <v>9.2050000000000001</v>
+      </c>
+      <c r="C20">
+        <v>87.064999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.1875</v>
+      </c>
+      <c r="B21">
+        <v>9.2560000000000002</v>
+      </c>
+      <c r="C21">
+        <v>73.213999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.25</v>
+      </c>
+      <c r="B22">
+        <v>9.3670000000000009</v>
+      </c>
+      <c r="C22">
+        <v>76.546999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.3125</v>
+      </c>
+      <c r="B23">
+        <v>9.5570000000000004</v>
+      </c>
+      <c r="C23">
+        <v>78.888999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1.375</v>
+      </c>
+      <c r="B24">
+        <v>10.224</v>
+      </c>
+      <c r="C24">
+        <v>84.313999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.4375</v>
+      </c>
+      <c r="B25">
+        <v>10.234999999999999</v>
+      </c>
+      <c r="C25">
+        <v>66.498999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1.5</v>
+      </c>
+      <c r="B26">
+        <v>10.563000000000001</v>
+      </c>
+      <c r="C26">
+        <v>81.239999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1.5625</v>
+      </c>
+      <c r="B27">
+        <v>10.634</v>
+      </c>
+      <c r="C27">
+        <v>74.629000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1.625</v>
+      </c>
+      <c r="B28">
+        <v>10.663</v>
+      </c>
+      <c r="C28">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1.6875</v>
+      </c>
+      <c r="B29">
+        <v>10.725</v>
+      </c>
+      <c r="C29">
+        <v>73.992999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.75</v>
+      </c>
+      <c r="B30">
+        <v>10.805999999999999</v>
+      </c>
+      <c r="C30">
+        <v>75.203999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1.8125</v>
+      </c>
+      <c r="B31">
+        <v>10.885999999999999</v>
+      </c>
+      <c r="C31">
+        <v>75.143000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1.875</v>
+      </c>
+      <c r="B32">
+        <v>11.244</v>
+      </c>
+      <c r="C32">
+        <v>81.617999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1.9375</v>
+      </c>
+      <c r="B33">
+        <v>11.326000000000001</v>
+      </c>
+      <c r="C33">
+        <v>75.254999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>11.446999999999999</v>
+      </c>
+      <c r="C34">
+        <v>76.944999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2.0625</v>
+      </c>
+      <c r="B35">
+        <v>11.661</v>
+      </c>
+      <c r="C35">
+        <v>79.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2.125</v>
+      </c>
+      <c r="B36">
+        <v>12.087</v>
+      </c>
+      <c r="C36">
+        <v>82.382000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2.1875</v>
+      </c>
+      <c r="B37">
+        <v>12.465999999999999</v>
+      </c>
+      <c r="C37">
+        <v>81.867000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2.25</v>
+      </c>
+      <c r="B38">
+        <v>13.336</v>
+      </c>
+      <c r="C38">
+        <v>85.463999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2.3125</v>
+      </c>
+      <c r="B39">
+        <v>13.553000000000001</v>
+      </c>
+      <c r="C39">
+        <v>79.456999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2.375</v>
+      </c>
+      <c r="B40">
+        <v>13.612</v>
+      </c>
+      <c r="C40">
+        <v>73.855999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2.4375</v>
+      </c>
+      <c r="B41">
+        <v>13.754</v>
+      </c>
+      <c r="C41">
+        <v>77.605999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2.5</v>
+      </c>
+      <c r="B42">
+        <v>13.82</v>
+      </c>
+      <c r="C42">
+        <v>74.278999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2.5625</v>
+      </c>
+      <c r="B43">
+        <v>13.958</v>
+      </c>
+      <c r="C43">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2.625</v>
+      </c>
+      <c r="B44">
+        <v>14.096</v>
+      </c>
+      <c r="C44">
+        <v>77.510999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2.6875</v>
+      </c>
+      <c r="B45">
+        <v>14.257</v>
+      </c>
+      <c r="C45">
+        <v>78.174000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2.75</v>
+      </c>
+      <c r="B46">
+        <v>14.407999999999999</v>
+      </c>
+      <c r="C46">
+        <v>77.888000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2.8125</v>
+      </c>
+      <c r="B47">
+        <v>14.612</v>
+      </c>
+      <c r="C47">
+        <v>79.174000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2.875</v>
+      </c>
+      <c r="B48">
+        <v>14.824</v>
+      </c>
+      <c r="C48">
+        <v>79.356999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2.9375</v>
+      </c>
+      <c r="B49">
+        <v>15.103999999999999</v>
+      </c>
+      <c r="C49">
+        <v>80.558999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>15.458</v>
+      </c>
+      <c r="C50">
+        <v>81.578999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3.0625</v>
+      </c>
+      <c r="B51">
+        <v>15.763</v>
+      </c>
+      <c r="C51">
+        <v>80.932000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3.125</v>
+      </c>
+      <c r="B52">
+        <v>15.923</v>
+      </c>
+      <c r="C52">
+        <v>78.111999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3.1875</v>
+      </c>
+      <c r="B53">
+        <v>16.103000000000002</v>
+      </c>
+      <c r="C53">
+        <v>78.647999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3.25</v>
+      </c>
+      <c r="B54">
+        <v>16.483000000000001</v>
+      </c>
+      <c r="C54">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3.3125</v>
+      </c>
+      <c r="B55">
+        <v>16.483000000000001</v>
+      </c>
+      <c r="C55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3.375</v>
+      </c>
+      <c r="B56">
+        <v>16.494</v>
+      </c>
+      <c r="C56">
+        <v>66.421999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3.4375</v>
+      </c>
+      <c r="B57">
+        <v>16.579000000000001</v>
+      </c>
+      <c r="C57">
+        <v>75.421999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3.5</v>
+      </c>
+      <c r="B58">
+        <v>16.672000000000001</v>
+      </c>
+      <c r="C58">
+        <v>75.792000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3.5625</v>
+      </c>
+      <c r="B59">
+        <v>16.704999999999998</v>
+      </c>
+      <c r="C59">
+        <v>71.328999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3.625</v>
+      </c>
+      <c r="B60">
+        <v>16.724</v>
+      </c>
+      <c r="C60">
+        <v>68.754999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3.6875</v>
+      </c>
+      <c r="B61">
+        <v>16.731999999999999</v>
+      </c>
+      <c r="C61">
+        <v>65.177000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3.75</v>
+      </c>
+      <c r="B62">
+        <v>16.736000000000001</v>
+      </c>
+      <c r="C62">
+        <v>62.378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3.8125</v>
+      </c>
+      <c r="B63">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="C63">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3.875</v>
+      </c>
+      <c r="B64">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3.9375</v>
+      </c>
+      <c r="B65">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4.0625</v>
+      </c>
+      <c r="B67">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4.125</v>
+      </c>
+      <c r="B68">
+        <v>16.736999999999998</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4.1875</v>
+      </c>
+      <c r="B69">
+        <v>16.741</v>
+      </c>
+      <c r="C69">
+        <v>61.51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>4.25</v>
+      </c>
+      <c r="B70">
+        <v>16.741</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4.3125</v>
+      </c>
+      <c r="B71">
+        <v>16.741</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>4.375</v>
+      </c>
+      <c r="B72">
+        <v>16.741</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4.4375</v>
+      </c>
+      <c r="B73">
+        <v>16.757999999999999</v>
+      </c>
+      <c r="C73">
+        <v>68.475999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4.5</v>
+      </c>
+      <c r="B74">
+        <v>16.786999999999999</v>
+      </c>
+      <c r="C74">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4.5625</v>
+      </c>
+      <c r="B75">
+        <v>16.786999999999999</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4.625</v>
+      </c>
+      <c r="B76">
+        <v>16.84</v>
+      </c>
+      <c r="C76">
+        <v>73.325999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>4.6875</v>
+      </c>
+      <c r="B77">
+        <v>16.84</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4.75</v>
+      </c>
+      <c r="B78">
+        <v>16.843</v>
+      </c>
+      <c r="C78">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4.8125</v>
+      </c>
+      <c r="B79">
+        <v>16.844000000000001</v>
+      </c>
+      <c r="C79">
+        <v>56.755000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4.875</v>
+      </c>
+      <c r="B80">
+        <v>16.844000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4.9375</v>
+      </c>
+      <c r="B81">
+        <v>16.844000000000001</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>16.846</v>
+      </c>
+      <c r="C82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5.0625</v>
+      </c>
+      <c r="B83">
+        <v>16.846</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5.125</v>
+      </c>
+      <c r="B84">
+        <v>16.859000000000002</v>
+      </c>
+      <c r="C84">
+        <v>67.388000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>5.1875</v>
+      </c>
+      <c r="B85">
+        <v>16.861000000000001</v>
+      </c>
+      <c r="C85">
+        <v>58.966000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5.25</v>
+      </c>
+      <c r="B86">
+        <v>16.866</v>
+      </c>
+      <c r="C86">
+        <v>63.100999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>5.3125</v>
+      </c>
+      <c r="B87">
+        <v>16.869</v>
+      </c>
+      <c r="C87">
+        <v>60.421999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>5.375</v>
+      </c>
+      <c r="B88">
+        <v>16.87</v>
+      </c>
+      <c r="C88">
+        <v>56.755000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>5.4375</v>
+      </c>
+      <c r="B89">
+        <v>16.873999999999999</v>
+      </c>
+      <c r="C89">
+        <v>62.755000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5.5</v>
+      </c>
+      <c r="B90">
+        <v>16.885000000000002</v>
+      </c>
+      <c r="C90">
+        <v>66.421999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5.5625</v>
+      </c>
+      <c r="B91">
+        <v>16.887</v>
+      </c>
+      <c r="C91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5.625</v>
+      </c>
+      <c r="B92">
+        <v>16.888000000000002</v>
+      </c>
+      <c r="C92">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5.6875</v>
+      </c>
+      <c r="B93">
+        <v>16.891999999999999</v>
+      </c>
+      <c r="C93">
+        <v>61.966000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5.75</v>
+      </c>
+      <c r="B94">
+        <v>16.891999999999999</v>
+      </c>
+      <c r="C94">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5.8125</v>
+      </c>
+      <c r="B95">
+        <v>16.893999999999998</v>
+      </c>
+      <c r="C95">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5.875</v>
+      </c>
+      <c r="B96">
+        <v>16.893999999999998</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5.9375</v>
+      </c>
+      <c r="B97">
+        <v>16.893999999999998</v>
+      </c>
+      <c r="C97">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>16.893999999999998</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6.0625</v>
+      </c>
+      <c r="B99">
+        <v>16.896000000000001</v>
+      </c>
+      <c r="C99">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>6.125</v>
+      </c>
+      <c r="B100">
+        <v>16.896999999999998</v>
+      </c>
+      <c r="C100">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>6.1875</v>
+      </c>
+      <c r="B101">
+        <v>16.896999999999998</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6.25</v>
+      </c>
+      <c r="B102">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C102">
+        <v>60.421999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>6.3125</v>
+      </c>
+      <c r="B103">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>6.375</v>
+      </c>
+      <c r="B104">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C104">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6.4375</v>
+      </c>
+      <c r="B105">
+        <v>16.908000000000001</v>
+      </c>
+      <c r="C105">
+        <v>64.744</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6.5</v>
+      </c>
+      <c r="B106">
+        <v>16.920999999999999</v>
+      </c>
+      <c r="C106">
+        <v>67.388000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>6.5625</v>
+      </c>
+      <c r="B107">
+        <v>16.928000000000001</v>
+      </c>
+      <c r="C107">
+        <v>64.744</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>6.625</v>
+      </c>
+      <c r="B108">
+        <v>16.942</v>
+      </c>
+      <c r="C108">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>6.6875</v>
+      </c>
+      <c r="B109">
+        <v>16.948</v>
+      </c>
+      <c r="C109">
+        <v>64.262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>6.75</v>
+      </c>
+      <c r="B110">
+        <v>16.949000000000002</v>
+      </c>
+      <c r="C110">
+        <v>56.755000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>6.8125</v>
+      </c>
+      <c r="B111">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C111">
+        <v>66.573999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>6.875</v>
+      </c>
+      <c r="B112">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>6.9375</v>
+      </c>
+      <c r="B113">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>7.0625</v>
+      </c>
+      <c r="B115">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>7.125</v>
+      </c>
+      <c r="B116">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>7.1875</v>
+      </c>
+      <c r="B117">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>7.25</v>
+      </c>
+      <c r="B118">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>7.3125</v>
+      </c>
+      <c r="B119">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>7.375</v>
+      </c>
+      <c r="B120">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>7.4375</v>
+      </c>
+      <c r="B121">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>7.5</v>
+      </c>
+      <c r="B122">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>7.5625</v>
+      </c>
+      <c r="B123">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>7.625</v>
+      </c>
+      <c r="B124">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>7.6875</v>
+      </c>
+      <c r="B125">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>7.75</v>
+      </c>
+      <c r="B126">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>7.8125</v>
+      </c>
+      <c r="B127">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>7.875</v>
+      </c>
+      <c r="B128">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>7.9375</v>
+      </c>
+      <c r="B129">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>8.0625</v>
+      </c>
+      <c r="B131">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>8.125</v>
+      </c>
+      <c r="B132">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>8.1875</v>
+      </c>
+      <c r="B133">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>8.25</v>
+      </c>
+      <c r="B134">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>8.3125</v>
+      </c>
+      <c r="B135">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>8.375</v>
+      </c>
+      <c r="B136">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>8.4375</v>
+      </c>
+      <c r="B137">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>8.5</v>
+      </c>
+      <c r="B138">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>8.5625</v>
+      </c>
+      <c r="B139">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>8.625</v>
+      </c>
+      <c r="B140">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>8.6875</v>
+      </c>
+      <c r="B141">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>8.75</v>
+      </c>
+      <c r="B142">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>8.8125</v>
+      </c>
+      <c r="B143">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>8.875</v>
+      </c>
+      <c r="B144">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>8.9375</v>
+      </c>
+      <c r="B145">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>9</v>
+      </c>
+      <c r="B146">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>9.0625</v>
+      </c>
+      <c r="B147">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>9.125</v>
+      </c>
+      <c r="B148">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>9.1875</v>
+      </c>
+      <c r="B149">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>9.25</v>
+      </c>
+      <c r="B150">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>9.3125</v>
+      </c>
+      <c r="B151">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>9.375</v>
+      </c>
+      <c r="B152">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>9.4375</v>
+      </c>
+      <c r="B153">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>9.5</v>
+      </c>
+      <c r="B154">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>9.5625</v>
+      </c>
+      <c r="B155">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>9.625</v>
+      </c>
+      <c r="B156">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>9.6875</v>
+      </c>
+      <c r="B157">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>9.75</v>
+      </c>
+      <c r="B158">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>9.8125</v>
+      </c>
+      <c r="B159">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>9.875</v>
+      </c>
+      <c r="B160">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>9.9375</v>
+      </c>
+      <c r="B161">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>10.0625</v>
+      </c>
+      <c r="B163">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>10.125</v>
+      </c>
+      <c r="B164">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>10.1875</v>
+      </c>
+      <c r="B165">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>10.25</v>
+      </c>
+      <c r="B166">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>10.3125</v>
+      </c>
+      <c r="B167">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>10.375</v>
+      </c>
+      <c r="B168">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>10.4375</v>
+      </c>
+      <c r="B169">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>10.5</v>
+      </c>
+      <c r="B170">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>10.5625</v>
+      </c>
+      <c r="B171">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>10.625</v>
+      </c>
+      <c r="B172">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>10.6875</v>
+      </c>
+      <c r="B173">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>10.7142</v>
+      </c>
+      <c r="B174">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="C174">
+        <v>58.686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dosimeter sample raw data and notes.xlsx
+++ b/Dosimeter sample raw data and notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankyzhang/Desktop/Ofer-s-Proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F5D2D-C9D3-4C4D-B20B-58DCDB9802A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D17E2F-E519-1E4F-953F-808ABABC1058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>Report Date            Tue, Nov 17, 2015</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>Leq for hr 3</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="162" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="162" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1056,6 +1059,9 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>90</v>
